--- a/FileUpload/record_details.xlsx
+++ b/FileUpload/record_details.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>项号</t>
   </si>
@@ -31,82 +31,88 @@
     <t>商品名称</t>
   </si>
   <si>
+    <t>成交单位名称</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>85076000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>料件</t>
+  </si>
+  <si>
+    <t>锂离子蓄电池/钴铝锂铜镍</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>规格型号</t>
-  </si>
-  <si>
-    <t>成交单位名称</t>
-  </si>
-  <si>
-    <t>版本号</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>85076000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>把</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>料件</t>
-  </si>
-  <si>
-    <t>锂离子蓄电池/钴铝锂铜镍</t>
-  </si>
-  <si>
-    <t>DOCOMO用/钴铝锂铜镍/DOCOMO/1800mAh/不含汞/3.7V</t>
-  </si>
-  <si>
-    <t>盎司</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用/禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,24 +454,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="4" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,86 +489,89 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20</v>
       </c>
@@ -567,27 +579,27 @@
         <v>37025520</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
     </row>
